--- a/hybrid_searchTesting/timings_20_question_RRF.xlsx
+++ b/hybrid_searchTesting/timings_20_question_RRF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E15CC8-02F5-4827-AC79-3AC322AFB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74A850-4DC4-471E-B503-49507EE8124B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +157,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,12 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -513,9 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -523,25 +511,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -550,19 +538,19 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1.86</v>
+        <v>0.312</v>
       </c>
       <c r="C2">
-        <v>1.2310000000000001</v>
+        <v>2.2789999999999999</v>
       </c>
       <c r="D2">
-        <v>0.621</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="E2">
-        <v>2.1419999999999999</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="F2">
-        <v>5.8550000000000004</v>
+        <v>5.0279999999999996</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -576,19 +564,19 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.51200000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="C3">
-        <v>0.34200000000000003</v>
+        <v>2.36</v>
       </c>
       <c r="D3">
-        <v>0.65</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E3">
-        <v>1.143</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="F3">
-        <v>2.6469999999999998</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -602,22 +590,22 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.0780000000000001</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="C4">
-        <v>0.48699999999999999</v>
+        <v>2.464</v>
       </c>
       <c r="D4">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
-        <v>1.4990000000000001</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="F4">
-        <v>3.6890000000000001</v>
+        <v>5.258</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -628,22 +616,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.34499999999999997</v>
+        <v>0.318</v>
       </c>
       <c r="C5">
-        <v>0.39200000000000002</v>
+        <v>2.323</v>
       </c>
       <c r="D5">
-        <v>0.64</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E5">
-        <v>1.498</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="F5">
-        <v>2.875</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="G5">
-        <v>0.85099999999999998</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -654,19 +642,19 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.33700000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C6">
-        <v>0.41199999999999998</v>
+        <v>2.157</v>
       </c>
       <c r="D6">
         <v>0.61599999999999999</v>
       </c>
       <c r="E6">
-        <v>1.5329999999999999</v>
+        <v>4.0049999999999999</v>
       </c>
       <c r="F6">
-        <v>2.8980000000000001</v>
+        <v>7.2030000000000003</v>
       </c>
       <c r="G6">
         <v>0.75600000000000001</v>
@@ -680,19 +668,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.372</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="C7">
-        <v>0.46500000000000002</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="D7">
-        <v>0.61299999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E7">
-        <v>1.4339999999999999</v>
+        <v>4.4020000000000001</v>
       </c>
       <c r="F7">
-        <v>2.8849999999999998</v>
+        <v>8.0239999999999991</v>
       </c>
       <c r="G7">
         <v>0.80900000000000005</v>
@@ -706,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.438</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="C8">
-        <v>0.51600000000000001</v>
+        <v>2.266</v>
       </c>
       <c r="D8">
-        <v>0.61699999999999999</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E8">
-        <v>1.145</v>
+        <v>6.6829999999999998</v>
       </c>
       <c r="F8">
-        <v>2.7160000000000002</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.78200000000000003</v>
@@ -732,22 +720,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.58299999999999996</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C9">
-        <v>0.54700000000000004</v>
+        <v>2.3849999999999998</v>
       </c>
       <c r="D9">
-        <v>0.627</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E9">
-        <v>1.4470000000000001</v>
+        <v>1.514</v>
       </c>
       <c r="F9">
-        <v>3.2040000000000002</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="G9">
-        <v>0.749</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="H9">
         <v>27</v>
@@ -758,19 +746,19 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.33600000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C10">
-        <v>0.54200000000000004</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="D10">
-        <v>0.57499999999999996</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E10">
-        <v>1.5820000000000001</v>
+        <v>1.617</v>
       </c>
       <c r="F10">
-        <v>3.0350000000000001</v>
+        <v>5.4359999999999999</v>
       </c>
       <c r="G10">
         <v>0.89300000000000002</v>
@@ -784,22 +772,22 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.309</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C11">
-        <v>0.54500000000000004</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="D11">
-        <v>0.58699999999999997</v>
+        <v>0.63</v>
       </c>
       <c r="E11">
-        <v>1.45</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="F11">
-        <v>2.891</v>
+        <v>5.093</v>
       </c>
       <c r="G11">
-        <v>0.96499999999999997</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H11">
         <v>31</v>
@@ -810,22 +798,22 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.35599999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="C12">
-        <v>0.47099999999999997</v>
+        <v>2.36</v>
       </c>
       <c r="D12">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E12">
-        <v>1.4359999999999999</v>
+        <v>3.8010000000000002</v>
       </c>
       <c r="F12">
-        <v>2.8820000000000001</v>
+        <v>7.1120000000000001</v>
       </c>
       <c r="G12">
-        <v>0.72699999999999998</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="H12">
         <v>31</v>
@@ -836,22 +824,22 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.307</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C13">
-        <v>0.35599999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="D13">
-        <v>0.61799999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E13">
-        <v>2.0619999999999998</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="F13">
-        <v>3.343</v>
+        <v>5.5640000000000001</v>
       </c>
       <c r="G13">
-        <v>0.97499999999999998</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="H13">
         <v>36</v>
@@ -862,19 +850,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.376</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C14">
-        <v>0.38300000000000001</v>
+        <v>2.613</v>
       </c>
       <c r="D14">
-        <v>0.753</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="E14">
-        <v>1.722</v>
+        <v>3.258</v>
       </c>
       <c r="F14">
-        <v>3.2349999999999999</v>
+        <v>7.0709999999999997</v>
       </c>
       <c r="G14">
         <v>0.71399999999999997</v>
@@ -888,22 +876,22 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.33800000000000002</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C15">
-        <v>0.55800000000000005</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="D15">
-        <v>0.63900000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E15">
-        <v>1.351</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="F15">
-        <v>2.887</v>
+        <v>5.0659999999999998</v>
       </c>
       <c r="G15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>31</v>
@@ -914,19 +902,19 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.39800000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C16">
-        <v>0.35</v>
+        <v>2.4790000000000001</v>
       </c>
       <c r="D16">
-        <v>0.63400000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="E16">
-        <v>1.284</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="F16">
-        <v>2.6659999999999999</v>
+        <v>5.601</v>
       </c>
       <c r="G16">
         <v>0.872</v>
@@ -940,25 +928,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.35399999999999998</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C17">
-        <v>0.36799999999999999</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="D17">
-        <v>0.63200000000000001</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E17">
-        <v>1.869</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="F17">
-        <v>3.2229999999999999</v>
+        <v>5.48</v>
       </c>
       <c r="G17">
         <v>0.76400000000000001</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -966,25 +954,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.32</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C18">
-        <v>0.48799999999999999</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="D18">
-        <v>0.63</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E18">
-        <v>1.444</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="F18">
-        <v>2.8839999999999999</v>
+        <v>5.992</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -992,19 +980,19 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.309</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C19">
-        <v>0.39700000000000002</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="D19">
-        <v>0.64</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="E19">
-        <v>1.2809999999999999</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="F19">
-        <v>2.6259999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1018,19 +1006,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.38700000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="C20">
-        <v>0.35099999999999998</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="D20">
-        <v>0.61799999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="E20">
-        <v>1.1850000000000001</v>
+        <v>1.258</v>
       </c>
       <c r="F20">
-        <v>2.54</v>
+        <v>4.6219999999999999</v>
       </c>
       <c r="G20">
         <v>0.88100000000000001</v>
@@ -1044,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.29399999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="C21">
-        <v>0.372</v>
+        <v>2.573</v>
       </c>
       <c r="D21">
-        <v>0.63100000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="E21">
-        <v>1.982</v>
+        <v>2.101</v>
       </c>
       <c r="F21">
-        <v>3.2789999999999999</v>
+        <v>5.5170000000000003</v>
       </c>
       <c r="G21">
         <v>0.99</v>
@@ -1071,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CEA01D-0904-4FE1-8391-FE9AE5CE5684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E172D27-CEED-4A50-AC26-3B2CDCC55BE5}">
   <dimension ref="B5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1095,7 +1083,7 @@
       </c>
       <c r="H7">
         <f>ROUND(AVERAGE(Sheet1!C2:C21),2)</f>
-        <v>0.48</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1104,7 +1092,7 @@
       </c>
       <c r="H9">
         <f>ROUND(AVERAGE(Sheet1!D2:D21),2)</f>
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1113,7 +1101,7 @@
       </c>
       <c r="H11">
         <f>ROUND(AVERAGE(Sheet1!E2:E21),2)</f>
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1122,7 +1110,7 @@
       </c>
       <c r="H13">
         <f>ROUND(AVERAGE(Sheet1!F2:F21),2)</f>
-        <v>3.11</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1131,7 +1119,7 @@
       </c>
       <c r="H15">
         <f>ROUND(AVERAGE(Sheet1!G2:G21),2)</f>
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1139,8 +1127,8 @@
         <v>34</v>
       </c>
       <c r="H17">
-        <f>AVERAGE(Sheet1!H2:H21)</f>
-        <v>31.15</v>
+        <f>ROUND(AVERAGE(Sheet1!H2:H21),2)</f>
+        <v>31.25</v>
       </c>
     </row>
   </sheetData>

--- a/hybrid_searchTesting/timings_20_question_RRF.xlsx
+++ b/hybrid_searchTesting/timings_20_question_RRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74A850-4DC4-471E-B503-49507EE8124B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF96A715-38ED-4F4C-8450-E62661F3A7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,7 +1063,7 @@
   <dimension ref="B5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
